--- a/Ratios/USDSRatios.xlsx
+++ b/Ratios/USDSRatios.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wnguyen/Dropbox/CR/Ratios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EC298F4-C84F-5748-97C4-1183EFF548C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF3A84A-FD19-7344-B7D6-C7622B0ED5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="4920" windowWidth="27240" windowHeight="16440" xr2:uid="{812A09A2-AA11-474D-8465-1A4499C6C7F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{812A09A2-AA11-474D-8465-1A4499C6C7F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,6 +194,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -242,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -253,6 +254,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,13 +571,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BDA86D-0386-5F42-804A-601D755E8B7D}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -592,7 +594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,12 +607,12 @@
       <c r="D2">
         <v>3.0101429999999998E-3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <f>B2/D2</f>
         <v>0.4893331645705869</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -623,12 +625,12 @@
       <c r="D3">
         <v>2.5735089999999999E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E25" si="0">B3/D3</f>
         <v>0.49516158676732819</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -641,52 +643,57 @@
       <c r="D4">
         <v>3.142494E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>0.47752692606572994</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17">
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1.792699E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1.5745614000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1.1626155E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>1.4590969999999999E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>1.34661E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -699,12 +706,12 @@
       <c r="D10">
         <v>2.8179849999999998E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>0.48520339888253489</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -717,12 +724,12 @@
       <c r="D11">
         <v>5.0956550000000001E-3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>0.49302513612087157</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -735,12 +742,12 @@
       <c r="D12">
         <v>2.8179849999999998E-3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>0.42958142076696648</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17">
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -753,12 +760,12 @@
       <c r="D13">
         <v>3.5642124999999999E-3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>0.36274941519339821</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17">
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -771,12 +778,12 @@
       <c r="D14">
         <v>3.0758909999999999E-3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>0.35760207367556268</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17">
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -789,12 +796,12 @@
       <c r="D15">
         <v>2.7556159999999998E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>0.33754412806428763</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17">
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -807,12 +814,12 @@
       <c r="D16">
         <v>2.51446E-3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>0.43690414641712333</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17">
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -825,12 +832,12 @@
       <c r="D17">
         <v>3.0101429999999998E-3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <f t="shared" si="0"/>
         <v>0.38892039348296747</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17">
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -843,12 +850,12 @@
       <c r="D18">
         <v>3.4884489999999998E-3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
         <v>0.26209341171391642</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -861,12 +868,12 @@
       <c r="D19">
         <v>2.8179849999999998E-3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <f t="shared" si="0"/>
         <v>0.39618308827051957</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17">
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -879,12 +886,12 @@
       <c r="D20">
         <v>4.0349671E-3</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>0.38888312125271107</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -897,12 +904,12 @@
       <c r="D21">
         <v>2.8811930000000002E-3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>0.40632682364562178</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17">
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -915,12 +922,12 @@
       <c r="D22">
         <v>2.8811930000000002E-3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>0.44568378446011769</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17">
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -933,12 +940,12 @@
       <c r="D23">
         <v>2.8906025000000001E-3</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>0.40374461725539923</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17">
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -951,12 +958,12 @@
       <c r="D24">
         <v>3.8563040000000001E-3</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>0.43119577709641149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17">
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -969,7 +976,7 @@
       <c r="D25">
         <v>3.278277E-3</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <f t="shared" si="0"/>
         <v>0.42822586376929106</v>
       </c>
